--- a/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/set_5.xlsx
+++ b/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/set_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/jb-environment/join-benchmark/results/model_eval/extra_features/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/jb-environment/join-benchmark/results/model_eval/extra_features_all&gt;all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{14CDFB67-A06D-6447-A5E4-5EB2EFB989A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8630A972-7991-8C44-8D07-AD2A309E33AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="700" windowWidth="26940" windowHeight="16440"/>
+    <workbookView xWindow="16900" yWindow="0" windowWidth="16700" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set_5" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="448">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -521,12 +521,6 @@
     <t>0.6249840345143696</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:02.643063</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:09.737824</t>
-  </si>
-  <si>
     <t>0.3336810027343995</t>
   </si>
   <si>
@@ -572,9 +566,6 @@
     <t>0.6248126827858294</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:18.011019</t>
-  </si>
-  <si>
     <t>0.33367849173928427</t>
   </si>
   <si>
@@ -614,9 +605,6 @@
     <t>0.6253149211632016</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:25.022787</t>
-  </si>
-  <si>
     <t>0.36911600229939456</t>
   </si>
   <si>
@@ -659,9 +647,6 @@
     <t>0.6042482427468301</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:32.808280</t>
-  </si>
-  <si>
     <t>0.3384534445856678</t>
   </si>
   <si>
@@ -701,12 +686,6 @@
     <t>0.6254206987566588</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:40.452405</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:47.622133</t>
-  </si>
-  <si>
     <t>0.33648420706758364</t>
   </si>
   <si>
@@ -749,9 +728,6 @@
     <t>0.6253011822189144</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:54.478560</t>
-  </si>
-  <si>
     <t>0.33648777254247814</t>
   </si>
   <si>
@@ -773,18 +749,6 @@
     <t>0.151026733061769</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:02.101103</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:09.158630</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:16.197227</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:23.778432</t>
-  </si>
-  <si>
     <t>0.34399718569773463</t>
   </si>
   <si>
@@ -827,9 +791,6 @@
     <t>0.622220201188967</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:30.940750</t>
-  </si>
-  <si>
     <t>0.3571294964194057</t>
   </si>
   <si>
@@ -872,12 +833,6 @@
     <t>0.6252197503678207</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:37.991068</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:45.619124</t>
-  </si>
-  <si>
     <t>0.33199039365496597</t>
   </si>
   <si>
@@ -905,9 +860,6 @@
     <t>0.6340221095604163</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:52.665173</t>
-  </si>
-  <si>
     <t>0.36722063034333285</t>
   </si>
   <si>
@@ -950,9 +902,6 @@
     <t>0.6258032680751264</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:59.938950</t>
-  </si>
-  <si>
     <t>0.3383916219474809</t>
   </si>
   <si>
@@ -971,9 +920,6 @@
     <t>-0.13739574270950658</t>
   </si>
   <si>
-    <t>2024-02-26T06:09:07.245507</t>
-  </si>
-  <si>
     <t>0.36894393887292176</t>
   </si>
   <si>
@@ -1016,19 +962,427 @@
     <t>0.6120800499464407</t>
   </si>
   <si>
-    <t>2024-02-26T06:09:14.652834</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:09:21.945947</t>
-  </si>
-  <si>
     <t>Improvement, over base</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:11.996838</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:26.168117</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:40.948267</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:54.647855</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:08.947642</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:22.758015</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:36.223324</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:50.370193</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:04.404569</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:17.693070</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:30.976930</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:44.841854</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:58.341394</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:11.708319</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:25.573583</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:38.837900</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:52.424360</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:05.675083</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:19.284315</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:32.810198</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:46.041310</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_length']</t>
+  </si>
+  <si>
+    <t>0.3331629619008035</t>
+  </si>
+  <si>
+    <t>[0.00980392 0.99019608]</t>
+  </si>
+  <si>
+    <t>-0.06712951681621561</t>
+  </si>
+  <si>
+    <t>0.2360460555195467</t>
+  </si>
+  <si>
+    <t>0.5892209230549035</t>
+  </si>
+  <si>
+    <t>0.5363799527328603</t>
+  </si>
+  <si>
+    <t>0.04838657049053527</t>
+  </si>
+  <si>
+    <t>0.29905299260876383</t>
+  </si>
+  <si>
+    <t>0.2540590462231057</t>
+  </si>
+  <si>
+    <t>0.8045810504524464</t>
+  </si>
+  <si>
+    <t>0.5551803936592375</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:59.676701</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_unique']</t>
+  </si>
+  <si>
+    <t>0.3307994158969345</t>
+  </si>
+  <si>
+    <t>[1.01010101e-17 1.00000000e+00]</t>
+  </si>
+  <si>
+    <t>0.33079941589693457</t>
+  </si>
+  <si>
+    <t>-0.048631193879719994</t>
+  </si>
+  <si>
+    <t>0.08156828509271528</t>
+  </si>
+  <si>
+    <t>0.6944977585951841</t>
+  </si>
+  <si>
+    <t>0.7751948834452451</t>
+  </si>
+  <si>
+    <t>-0.13739574271150787</t>
+  </si>
+  <si>
+    <t>0.27938804170884296</t>
+  </si>
+  <si>
+    <t>0.25856628160210904</t>
+  </si>
+  <si>
+    <t>0.5579975220160064</t>
+  </si>
+  <si>
+    <t>0.8029929937459995</t>
+  </si>
+  <si>
+    <t>0.31577913649321876</t>
+  </si>
+  <si>
+    <t>0.15069840216297845</t>
+  </si>
+  <si>
+    <t>0.6251198312402808</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:13.291854</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_row_size']</t>
+  </si>
+  <si>
+    <t>0.38780453890632843</t>
+  </si>
+  <si>
+    <t>[1.81694345e-04 9.99818306e-01]</t>
+  </si>
+  <si>
+    <t>0.3878045389063284</t>
+  </si>
+  <si>
+    <t>-0.048596798840523626</t>
+  </si>
+  <si>
+    <t>0.08154797626860753</t>
+  </si>
+  <si>
+    <t>0.6944819412201583</t>
+  </si>
+  <si>
+    <t>0.7751937068336976</t>
+  </si>
+  <si>
+    <t>-0.13739574271358238</t>
+  </si>
+  <si>
+    <t>0.7912514524217452</t>
+  </si>
+  <si>
+    <t>0.9506392214912953</t>
+  </si>
+  <si>
+    <t>0.5903853431131881</t>
+  </si>
+  <si>
+    <t>0.8167851064979142</t>
+  </si>
+  <si>
+    <t>0.6424840180886664</t>
+  </si>
+  <si>
+    <t>0.1448724734475191</t>
+  </si>
+  <si>
+    <t>0.6453290981799742</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:26.728391</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_cache_age']</t>
+  </si>
+  <si>
+    <t>0.33287061945399976</t>
+  </si>
+  <si>
+    <t>[ 9.99999999e-22 -1.00000000e+00]</t>
+  </si>
+  <si>
+    <t>-0.048626850105104834</t>
+  </si>
+  <si>
+    <t>0.08156077770905572</t>
+  </si>
+  <si>
+    <t>0.6944958247470949</t>
+  </si>
+  <si>
+    <t>0.7751944373319531</t>
+  </si>
+  <si>
+    <t>-0.13739574270924043</t>
+  </si>
+  <si>
+    <t>0.3182260191063514</t>
+  </si>
+  <si>
+    <t>0.2929691050662715</t>
+  </si>
+  <si>
+    <t>0.5569224704622954</t>
+  </si>
+  <si>
+    <t>0.8056418591967556</t>
+  </si>
+  <si>
+    <t>0.3147714216750844</t>
+  </si>
+  <si>
+    <t>0.1509700220151646</t>
+  </si>
+  <si>
+    <t>0.6252576280259402</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:40.428938</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_bounds_range']</t>
+  </si>
+  <si>
+    <t>0.33988194611921446</t>
+  </si>
+  <si>
+    <t>[ 1.2345679e-17 -1.0000000e+00]</t>
+  </si>
+  <si>
+    <t>-0.04864417256985615</t>
+  </si>
+  <si>
+    <t>0.08154831075056279</t>
+  </si>
+  <si>
+    <t>0.6944934869016675</t>
+  </si>
+  <si>
+    <t>0.7751913450305886</t>
+  </si>
+  <si>
+    <t>-0.13739574270793517</t>
+  </si>
+  <si>
+    <t>0.2673433905847303</t>
+  </si>
+  <si>
+    <t>0.5612360732108912</t>
+  </si>
+  <si>
+    <t>0.8087332123413352</t>
+  </si>
+  <si>
+    <t>0.15022027940623517</t>
+  </si>
+  <si>
+    <t>0.6250200157832934</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:53.838906</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_length']</t>
+  </si>
+  <si>
+    <t>0.33116626460490256</t>
+  </si>
+  <si>
+    <t>-0.04524343108807113</t>
+  </si>
+  <si>
+    <t>0.07957291668487461</t>
+  </si>
+  <si>
+    <t>0.6956250925376245</t>
+  </si>
+  <si>
+    <t>0.7975264965501658</t>
+  </si>
+  <si>
+    <t>-0.14126373442453294</t>
+  </si>
+  <si>
+    <t>0.8045810504524467</t>
+  </si>
+  <si>
+    <t>0.15095488850810918</t>
+  </si>
+  <si>
+    <t>0.6223074774325635</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:07.619669</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_unique']</t>
+  </si>
+  <si>
+    <t>0.3310732024461764</t>
+  </si>
+  <si>
+    <t>-0.04860973844065279</t>
+  </si>
+  <si>
+    <t>0.0815632040048234</t>
+  </si>
+  <si>
+    <t>0.6944935393500224</t>
+  </si>
+  <si>
+    <t>0.7751902397857321</t>
+  </si>
+  <si>
+    <t>-0.13739574270111277</t>
+  </si>
+  <si>
+    <t>0.2730645334769172</t>
+  </si>
+  <si>
+    <t>0.14958459956767803</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:20.941371</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_row_size']</t>
+  </si>
+  <si>
+    <t>0.37869506262845015</t>
+  </si>
+  <si>
+    <t>[ 5.0000025e-04 -9.9950000e-01]</t>
+  </si>
+  <si>
+    <t>-0.048657317857876164</t>
+  </si>
+  <si>
+    <t>0.08156622160151566</t>
+  </si>
+  <si>
+    <t>0.694501662733414</t>
+  </si>
+  <si>
+    <t>0.7751938465172716</t>
+  </si>
+  <si>
+    <t>-0.13739574271506946</t>
+  </si>
+  <si>
+    <t>0.8124707083387073</t>
+  </si>
+  <si>
+    <t>0.9836997249825024</t>
+  </si>
+  <si>
+    <t>0.6014952734289025</t>
+  </si>
+  <si>
+    <t>0.8419407168976015</t>
+  </si>
+  <si>
+    <t>0.5407358908439344</t>
+  </si>
+  <si>
+    <t>0.12762179704483925</t>
+  </si>
+  <si>
+    <t>0.6128127221488018</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:34.332744</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_cache_age']</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:48.028765</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_bounds_range']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1863,11 +2217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1876,10 +2230,10 @@
     <col min="2" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
@@ -1917,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1958,7 +2312,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1982,8 +2336,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <f>_xlfn.NUMBERVALUE(H2,".")</f>
+        <f t="shared" ref="I2:I31" si="0">_xlfn.NUMBERVALUE(H2,".")</f>
         <v>0.33065836484783001</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2/$I$2-1</f>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -2024,7 +2382,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2039,62 +2397,62 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
         <v>164</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.33368100273439899</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J31" si="1">I3/$I$2-1</f>
+        <v>9.1412714992407107E-3</v>
+      </c>
+      <c r="K3" t="s">
         <v>165</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>166</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I21" si="0">_xlfn.NUMBERVALUE(H3,".")</f>
-        <v>0.33368100273439899</v>
-      </c>
-      <c r="J3" s="1">
-        <f>I3/$I$2-1</f>
-        <v>9.1412714992407107E-3</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>167</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>168</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>169</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>170</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>171</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>172</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>173</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>174</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>175</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
-      </c>
-      <c r="U3" t="s">
-        <v>177</v>
-      </c>
-      <c r="V3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -2109,62 +2467,62 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0.33367849173928399</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J21" si="1">I4/$I$2-1</f>
+        <f t="shared" si="1"/>
         <v>9.1336775733583675E-3</v>
       </c>
       <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" t="s">
         <v>182</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>183</v>
-      </c>
-      <c r="M4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" t="s">
-        <v>186</v>
       </c>
       <c r="P4" t="s">
         <v>106</v>
       </c>
       <c r="Q4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" t="s">
         <v>187</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>189</v>
-      </c>
-      <c r="T4" t="s">
-        <v>190</v>
-      </c>
-      <c r="U4" t="s">
-        <v>191</v>
-      </c>
-      <c r="V4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2179,13 +2537,13 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -2196,45 +2554,45 @@
         <v>0.11630625908787251</v>
       </c>
       <c r="K5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O5" t="s">
         <v>196</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>197</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>198</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>199</v>
       </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
         <v>200</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>201</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>202</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>203</v>
-      </c>
-      <c r="S5" t="s">
-        <v>204</v>
-      </c>
-      <c r="T5" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5" t="s">
-        <v>206</v>
-      </c>
-      <c r="V5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2249,13 +2607,13 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -2266,19 +2624,19 @@
         <v>2.3574421718997929E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P6" t="s">
         <v>52</v>
@@ -2287,24 +2645,24 @@
         <v>129</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="T6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="V6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -2374,7 +2732,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2389,13 +2747,13 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -2406,45 +2764,45 @@
         <v>1.7618916800831608E-2</v>
       </c>
       <c r="K8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" t="s">
+        <v>223</v>
+      </c>
+      <c r="P8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>225</v>
+      </c>
+      <c r="R8" t="s">
         <v>226</v>
       </c>
-      <c r="L8" t="s">
+      <c r="S8" t="s">
         <v>227</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>228</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>229</v>
       </c>
-      <c r="O8" t="s">
+      <c r="V8" t="s">
         <v>230</v>
-      </c>
-      <c r="P8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>232</v>
-      </c>
-      <c r="R8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S8" t="s">
-        <v>234</v>
-      </c>
-      <c r="T8" t="s">
-        <v>235</v>
-      </c>
-      <c r="U8" t="s">
-        <v>236</v>
-      </c>
-      <c r="V8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2459,13 +2817,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -2476,45 +2834,45 @@
         <v>1.7629699757726547E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="S9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="T9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="U9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="V9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -2584,7 +2942,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2654,7 +3012,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2724,7 +3082,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -2739,13 +3097,13 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -2756,45 +3114,45 @@
         <v>4.0340188750532802E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="N13" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="Q13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="R13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="S13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="T13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="U13" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="V13" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -2809,13 +3167,13 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -2826,45 +3184,45 @@
         <v>8.0055835223636684E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N14" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="O14" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Q14" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="R14" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="S14" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="T14" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="U14" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="V14" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2934,7 +3292,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -2949,13 +3307,13 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -2966,25 +3324,25 @@
         <v>4.0284140634034848E-3</v>
       </c>
       <c r="K16" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L16" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M16" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="N16" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O16" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="P16" t="s">
         <v>90</v>
       </c>
       <c r="Q16" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="R16" t="s">
         <v>31</v>
@@ -2999,12 +3357,12 @@
         <v>107</v>
       </c>
       <c r="V16" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3019,13 +3377,13 @@
         <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -3036,45 +3394,45 @@
         <v>0.11057414353430328</v>
       </c>
       <c r="K17" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L17" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M17" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="N17" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="O17" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="P17" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="Q17" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="R17" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="S17" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="T17" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="U17" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="V17" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -3089,13 +3447,13 @@
         <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -3112,13 +3470,13 @@
         <v>127</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N18" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="P18" t="s">
         <v>128</v>
@@ -3144,7 +3502,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -3159,13 +3517,13 @@
         <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H19" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -3176,45 +3534,45 @@
         <v>0.11578589291914665</v>
       </c>
       <c r="K19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L19" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M19" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="N19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O19" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="R19" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="S19" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="T19" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="U19" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="V19" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3284,7 +3642,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -3352,8 +3710,708 @@
         <v>161</v>
       </c>
     </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.33316296190080302</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5745764185510822E-3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>334</v>
+      </c>
+      <c r="L22" t="s">
+        <v>335</v>
+      </c>
+      <c r="M22" t="s">
+        <v>336</v>
+      </c>
+      <c r="N22" t="s">
+        <v>337</v>
+      </c>
+      <c r="O22" t="s">
+        <v>338</v>
+      </c>
+      <c r="P22" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>340</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" t="s">
+        <v>341</v>
+      </c>
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H23" t="s">
+        <v>347</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.33079941589693401</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2657638245113816E-4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>348</v>
+      </c>
+      <c r="L23" t="s">
+        <v>349</v>
+      </c>
+      <c r="M23" t="s">
+        <v>350</v>
+      </c>
+      <c r="N23" t="s">
+        <v>351</v>
+      </c>
+      <c r="O23" t="s">
+        <v>352</v>
+      </c>
+      <c r="P23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>354</v>
+      </c>
+      <c r="R23" t="s">
+        <v>355</v>
+      </c>
+      <c r="S23" t="s">
+        <v>356</v>
+      </c>
+      <c r="T23" t="s">
+        <v>357</v>
+      </c>
+      <c r="U23" t="s">
+        <v>358</v>
+      </c>
+      <c r="V23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" t="s">
+        <v>363</v>
+      </c>
+      <c r="H24" t="s">
+        <v>364</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.38780453890632799</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17282542991101058</v>
+      </c>
+      <c r="K24" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" t="s">
+        <v>366</v>
+      </c>
+      <c r="M24" t="s">
+        <v>367</v>
+      </c>
+      <c r="N24" t="s">
+        <v>368</v>
+      </c>
+      <c r="O24" t="s">
+        <v>369</v>
+      </c>
+      <c r="P24" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>371</v>
+      </c>
+      <c r="R24" t="s">
+        <v>372</v>
+      </c>
+      <c r="S24" t="s">
+        <v>373</v>
+      </c>
+      <c r="T24" t="s">
+        <v>374</v>
+      </c>
+      <c r="U24" t="s">
+        <v>375</v>
+      </c>
+      <c r="V24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>379</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.33287061945399898</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6904540799597179E-3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>381</v>
+      </c>
+      <c r="L25" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" t="s">
+        <v>383</v>
+      </c>
+      <c r="N25" t="s">
+        <v>384</v>
+      </c>
+      <c r="O25" t="s">
+        <v>385</v>
+      </c>
+      <c r="P25" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>387</v>
+      </c>
+      <c r="R25" t="s">
+        <v>388</v>
+      </c>
+      <c r="S25" t="s">
+        <v>389</v>
+      </c>
+      <c r="T25" t="s">
+        <v>390</v>
+      </c>
+      <c r="U25" t="s">
+        <v>391</v>
+      </c>
+      <c r="V25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.33988194611921402</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7894595304216008E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>397</v>
+      </c>
+      <c r="L26" t="s">
+        <v>398</v>
+      </c>
+      <c r="M26" t="s">
+        <v>399</v>
+      </c>
+      <c r="N26" t="s">
+        <v>400</v>
+      </c>
+      <c r="O26" t="s">
+        <v>401</v>
+      </c>
+      <c r="P26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>402</v>
+      </c>
+      <c r="R26" t="s">
+        <v>403</v>
+      </c>
+      <c r="S26" t="s">
+        <v>404</v>
+      </c>
+      <c r="T26" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s">
+        <v>405</v>
+      </c>
+      <c r="V26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>409</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.33116626460490201</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5360257324981141E-3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>410</v>
+      </c>
+      <c r="L27" t="s">
+        <v>411</v>
+      </c>
+      <c r="M27" t="s">
+        <v>412</v>
+      </c>
+      <c r="N27" t="s">
+        <v>413</v>
+      </c>
+      <c r="O27" t="s">
+        <v>414</v>
+      </c>
+      <c r="P27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>340</v>
+      </c>
+      <c r="R27" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" t="s">
+        <v>415</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>416</v>
+      </c>
+      <c r="V27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>419</v>
+      </c>
+      <c r="F28" t="s">
+        <v>420</v>
+      </c>
+      <c r="G28" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" t="s">
+        <v>420</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.331073202446176</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2545806864341369E-3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" t="s">
+        <v>424</v>
+      </c>
+      <c r="O28" t="s">
+        <v>425</v>
+      </c>
+      <c r="P28" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>426</v>
+      </c>
+      <c r="R28" t="s">
+        <v>355</v>
+      </c>
+      <c r="S28" t="s">
+        <v>356</v>
+      </c>
+      <c r="T28" t="s">
+        <v>357</v>
+      </c>
+      <c r="U28" t="s">
+        <v>427</v>
+      </c>
+      <c r="V28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>429</v>
+      </c>
+      <c r="F29" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" t="s">
+        <v>430</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.37869506262844999</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14527591885578528</v>
+      </c>
+      <c r="K29" t="s">
+        <v>432</v>
+      </c>
+      <c r="L29" t="s">
+        <v>433</v>
+      </c>
+      <c r="M29" t="s">
+        <v>434</v>
+      </c>
+      <c r="N29" t="s">
+        <v>435</v>
+      </c>
+      <c r="O29" t="s">
+        <v>436</v>
+      </c>
+      <c r="P29" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>438</v>
+      </c>
+      <c r="R29" t="s">
+        <v>439</v>
+      </c>
+      <c r="S29" t="s">
+        <v>440</v>
+      </c>
+      <c r="T29" t="s">
+        <v>441</v>
+      </c>
+      <c r="U29" t="s">
+        <v>442</v>
+      </c>
+      <c r="V29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>445</v>
+      </c>
+      <c r="F30" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" t="s">
+        <v>379</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.33287061945399898</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6904540799597179E-3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>381</v>
+      </c>
+      <c r="L30" t="s">
+        <v>382</v>
+      </c>
+      <c r="M30" t="s">
+        <v>383</v>
+      </c>
+      <c r="N30" t="s">
+        <v>384</v>
+      </c>
+      <c r="O30" t="s">
+        <v>385</v>
+      </c>
+      <c r="P30" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>387</v>
+      </c>
+      <c r="R30" t="s">
+        <v>388</v>
+      </c>
+      <c r="S30" t="s">
+        <v>389</v>
+      </c>
+      <c r="T30" t="s">
+        <v>390</v>
+      </c>
+      <c r="U30" t="s">
+        <v>391</v>
+      </c>
+      <c r="V30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>447</v>
+      </c>
+      <c r="F31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31" t="s">
+        <v>395</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.33988194611921402</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7894595304216008E-2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>397</v>
+      </c>
+      <c r="L31" t="s">
+        <v>398</v>
+      </c>
+      <c r="M31" t="s">
+        <v>399</v>
+      </c>
+      <c r="N31" t="s">
+        <v>400</v>
+      </c>
+      <c r="O31" t="s">
+        <v>401</v>
+      </c>
+      <c r="P31" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>402</v>
+      </c>
+      <c r="R31" t="s">
+        <v>403</v>
+      </c>
+      <c r="S31" t="s">
+        <v>404</v>
+      </c>
+      <c r="T31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s">
+        <v>405</v>
+      </c>
+      <c r="V31" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="L2:L31 J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3364,5 +4422,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>